--- a/doors-detector/results/house22.xlsx
+++ b/doors-detector/results/house22.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.764366232193853</v>
+        <v>0.7788650126460861</v>
       </c>
       <c r="F2" t="n">
         <v>5150</v>
       </c>
       <c r="G2" t="n">
-        <v>4256</v>
+        <v>4302</v>
       </c>
       <c r="H2" t="n">
-        <v>894</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4217282193953359</v>
+        <v>0.4445689174896192</v>
       </c>
       <c r="F3" t="n">
         <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6137394777475859</v>
+        <v>0.5839221086417912</v>
       </c>
       <c r="F4" t="n">
         <v>228</v>
       </c>
       <c r="G4" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H4" t="n">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7205837795537173</v>
+        <v>0.7185072060396909</v>
       </c>
       <c r="F5" t="n">
         <v>5150</v>
       </c>
       <c r="G5" t="n">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="H5" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6425117923730588</v>
+        <v>0.6099000298318591</v>
       </c>
       <c r="F6" t="n">
         <v>80</v>
       </c>
       <c r="G6" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6405296466439122</v>
+        <v>0.6470498548317568</v>
       </c>
       <c r="F7" t="n">
         <v>228</v>
       </c>
       <c r="G7" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H7" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7123149913489203</v>
+        <v>0.7182531653078413</v>
       </c>
       <c r="F8" t="n">
         <v>5150</v>
       </c>
       <c r="G8" t="n">
-        <v>4061</v>
+        <v>4079</v>
       </c>
       <c r="H8" t="n">
-        <v>1089</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6223238960939668</v>
+        <v>0.6046160117935995</v>
       </c>
       <c r="F9" t="n">
         <v>80</v>
@@ -728,7 +728,7 @@
         <v>56</v>
       </c>
       <c r="H9" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -742,25 +742,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.656741453916969</v>
+        <v>0.6708783098139917</v>
       </c>
       <c r="F10" t="n">
         <v>228</v>
       </c>
       <c r="G10" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" t="n">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.6853906877386026</v>
+        <v>0.6892165432038949</v>
       </c>
       <c r="F11" t="n">
         <v>5150</v>
       </c>
       <c r="G11" t="n">
-        <v>3969</v>
+        <v>3982</v>
       </c>
       <c r="H11" t="n">
-        <v>1181</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.723546593311249</v>
+        <v>0.6981256049278088</v>
       </c>
       <c r="F12" t="n">
         <v>80</v>
       </c>
       <c r="G12" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6970746066043828</v>
+        <v>0.7039855309744201</v>
       </c>
       <c r="F13" t="n">
         <v>228</v>
@@ -856,7 +856,7 @@
         <v>200</v>
       </c>
       <c r="H13" t="n">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
